--- a/bank_codes.xlsx
+++ b/bank_codes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t xml:space="preserve">은행</t>
   </si>
@@ -28,6 +28,12 @@
     <t xml:space="preserve">코드</t>
   </si>
   <si>
+    <t xml:space="preserve">한국산업은행</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002</t>
+  </si>
+  <si>
     <t xml:space="preserve">국민은행</t>
   </si>
   <si>
@@ -50,6 +56,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">국민은행</t>
     </r>
@@ -86,6 +93,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">농협은행</t>
     </r>
@@ -125,6 +133,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">하나은행</t>
     </r>
@@ -152,6 +161,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">제일은행</t>
     </r>
@@ -161,6 +171,12 @@
   </si>
   <si>
     <t xml:space="preserve">제일은행</t>
+  </si>
+  <si>
+    <t xml:space="preserve">카카오뱅크</t>
+  </si>
+  <si>
+    <t xml:space="preserve">090</t>
   </si>
 </sst>
 </file>
@@ -176,6 +192,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -198,6 +215,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -286,10 +304,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -307,7 +325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -315,20 +333,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,23 +362,23 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,42 +397,57 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/bank_codes.xlsx
+++ b/bank_codes.xlsx
@@ -307,17 +307,17 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
